--- a/biology/Mycologie/Hubert_Bourdot/Hubert_Bourdot.xlsx
+++ b/biology/Mycologie/Hubert_Bourdot/Hubert_Bourdot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hubert Bourdot est un prêtre catholique et mycologue français, né le 30 octobre 1861 à Imphy (Nièvre), où son père était gendarme, et mort le 30 septembre 1937 à Saint-Priest-en-Murat (Allier). 
 Avec le mycologue Amédée Galzin (1853-1925), il est coauteur d'une série de publications (1909-1925) relatives aux Aphyllophorales d'Europe publiées dans le Bulletin de la Société Mycologique de France. Cet ouvrage capital, « Les Hyménomycètes de France », est mondialement connu et toujours consulté avec intérêt à l'étranger comme en France, malgré les bouleversements et les progrès de la systématique des Aphyllophorales.
@@ -512,10 +524,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son père a été muté à Doyet (Allier) en 1870 puis, retraité en 1875, est devenu le concierge de l’évêché de Moulins ; c'est donc dans cette ville que le futur abbé Bourdot fait ses études, devient professeur à l'externat Saint-Michel à partir de 1883 et est ordonné prêtre la même année.
-La vocation des sciences naturelles se manifeste dès l'entrée au grand séminaire, quand un professeur lui prête sa première flore. Il se constitue aussitôt un herbier des plantes du Bourbonnais. En 1888, il est l'un des fondateurs de la Société scientifique du Bourbonnais. Son herbier de phanérogames complété, il se passionne pour les lichens et les champignons, sous l'influence déterminante du très actif mycologue, le capitaine Lucand[1], notamment les Polypores sensu lato (Aphyllophorales) et adhère également à la toute jeune Société mycologique de France en 1888.
+La vocation des sciences naturelles se manifeste dès l'entrée au grand séminaire, quand un professeur lui prête sa première flore. Il se constitue aussitôt un herbier des plantes du Bourbonnais. En 1888, il est l'un des fondateurs de la Société scientifique du Bourbonnais. Son herbier de phanérogames complété, il se passionne pour les lichens et les champignons, sous l'influence déterminante du très actif mycologue, le capitaine Lucand, notamment les Polypores sensu lato (Aphyllophorales) et adhère également à la toute jeune Société mycologique de France en 1888.
 De 1882 à 1894, il publie « Les Hyménomycètes des environs de Moulins » dans la revue de la Société scientifique du Bourbonnais. Après la mort de Lucand en 1896, il correspond avec Quélet, puis de 1901 à 1906, il lui adresse des spécimens, ainsi qu'à Robert Fries (le petit-fils d'Elias Magnus), Boudier et Bresadola pour obtenir confirmation de ses déterminations.
 </t>
         </is>
@@ -545,9 +559,11 @@
           <t>B. &amp; G. : Les deux font la paire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est en 1903 qu'il rencontre Amédée Galzin (1853-1925), vétérinaire militaire en retraite dans l'Aveyron, qui adhère à la SMF la même année. Homme de terrain et récolteur impénitent, Galzin submerge littéralement Bourdot de ses envois, explorant tous les habitats potentiels et repérant les plus petites espèces : « Oculatissimus » disait de lui Bresadola. Il avait conquis l'estime de Bourdot qui le considérait comme un collaborateur à part entière, souvent d'un avis autorisé[2], et sans lequel son œuvre n'eût jamais vu le jour[3]. Galzin lui adressera jusqu'à sa mort un nombre fantastique d'échantillons. La parution récente des Fungi hungaricini et des Fungi polonici de Bresadola, la prédilection de Galzin pour les champignons lignicoles, et ceux-ci se prêtant aisément à la conservation en herbier, déterminèrent leur commune et solide collaboration.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est en 1903 qu'il rencontre Amédée Galzin (1853-1925), vétérinaire militaire en retraite dans l'Aveyron, qui adhère à la SMF la même année. Homme de terrain et récolteur impénitent, Galzin submerge littéralement Bourdot de ses envois, explorant tous les habitats potentiels et repérant les plus petites espèces : « Oculatissimus » disait de lui Bresadola. Il avait conquis l'estime de Bourdot qui le considérait comme un collaborateur à part entière, souvent d'un avis autorisé, et sans lequel son œuvre n'eût jamais vu le jour. Galzin lui adressera jusqu'à sa mort un nombre fantastique d'échantillons. La parution récente des Fungi hungaricini et des Fungi polonici de Bresadola, la prédilection de Galzin pour les champignons lignicoles, et ceux-ci se prêtant aisément à la conservation en herbier, déterminèrent leur commune et solide collaboration.
 Commencée en 1909 et malgré l'interruption due à la Première Guerre mondiale, le succès de cette œuvre autorisa une réimpression totale en 1928 sous les auspices de la SMF. Bourdot la complète et y rend hommage à Bresadola.
 En 1910, il est élu président honoraire en 1910 de la Société Scientifique du Bourbonnais et du Centre de la France. 
 Bourdot apportait le plus grand soin à la description des espèces et des supports, contrôlés sur le terrain par Galzin. La qualité et la précision de ses diagnoses est stupéfiante, surtout quand on sait qu'il n'avait qu'un microscope à statif fixe, un martelet de sa fabrication faisant office de microtome, avec lequel il dilacérait les hyphes. Pauvre et désintéressé, sa modestie l’empêchait aussi de créer une nouvelle taxinomie. Il se borna à adapter celle de Patouillard.  
@@ -584,7 +600,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve"> Officier d'Académie</t>
         </is>
@@ -614,7 +632,9 @@
           <t>Sélection de publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Bourdot, H.; Galzin, A. 1909. Hyménomycètes de France: I. Heterobasidiés. Bulletin de la Société mycologique de France. 25:15-36
 Bourdot, H.; Galzin, A. 1910. Hyménomycètes de France: II. Homobasidiés: Clavariés et Cyphellés. Bulletin de la Société mycologique de France. 26:210-228
